--- a/diagrams/Long_filepath_deliverable_list.xlsx
+++ b/diagrams/Long_filepath_deliverable_list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.tsang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\LongFilepathShorterner\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748A6AEC-B780-4934-B584-DD01B04BC92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F8A517-A7FE-461C-8699-89640D31D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EF4DF93-470A-4418-9DBB-08AF649A7756}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7EF4DF93-470A-4418-9DBB-08AF649A7756}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliverable" sheetId="1" r:id="rId1"/>
     <sheet name="Features" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimated Timeline" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Deliverable Name</t>
   </si>
@@ -239,12 +240,61 @@
   <si>
     <t>Workday Remaining</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Planned Task</t>
+  </si>
+  <si>
+    <t>Script Development-3</t>
+  </si>
+  <si>
+    <t>Script Development-4</t>
+  </si>
+  <si>
+    <t>Script Development-5</t>
+  </si>
+  <si>
+    <t>N/A - Weekend</t>
+  </si>
+  <si>
+    <t>Error Handling Mechanism-1</t>
+  </si>
+  <si>
+    <t>Testing-2</t>
+  </si>
+  <si>
+    <t>Testing-3</t>
+  </si>
+  <si>
+    <t>Testing-4</t>
+  </si>
+  <si>
+    <t>User Manual &amp; Documentation-1</t>
+  </si>
+  <si>
+    <t>User Manual &amp; Documentation-2</t>
+  </si>
+  <si>
+    <t>Task Requirements</t>
+  </si>
+  <si>
+    <t>Testing on target system using mock data:
+1. Restore a drop to a test envirnoment that is permitted to test (delete or rename without consequence)
+2. The data size should be close to real situation. Ensure the data set can satisfy both use cases: long nested-folders and long filenames
+3. Same user account/type as the one will be used on the script</t>
+  </si>
+  <si>
+    <t>Knowledge Transfer Material
+Script Validation and Handover</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +394,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +454,26 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,14 +516,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -452,8 +560,27 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
+    <cellStyle name="Accent2" xfId="5" builtinId="33"/>
+    <cellStyle name="Accent4" xfId="6" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
@@ -772,23 +899,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96485D63-E1AC-43E1-94C4-0C8B1F518E50}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -817,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -840,7 +967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -869,7 +996,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -898,7 +1025,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -929,7 +1056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -953,12 +1080,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>6</v>
+      <c r="H6" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -987,7 +1114,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +1143,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
@@ -1045,7 +1172,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1066,13 +1193,13 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
     </row>
   </sheetData>
@@ -1089,15 +1216,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1111,7 +1238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1123,7 +1250,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1135,7 +1262,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="366.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="366.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1149,7 +1276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1161,7 +1288,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1173,7 +1300,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1185,7 +1312,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1197,7 +1324,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1211,7 +1338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1225,6 +1352,235 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EF1625-45BF-412E-ABA1-B60196176E03}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>45320</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>45321</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>45322</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>45323</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>45324</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>45325</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>45326</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>45327</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>45328</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>45329</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>45330</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>45331</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>45332</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>45333</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>45334</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>45335</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>45336</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>45337</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>45338</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>45339</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>45340</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/diagrams/Long_filepath_deliverable_list.xlsx
+++ b/diagrams/Long_filepath_deliverable_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\LongFilepathShorterner\diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.tsang\Desktop\LongFilepathShorterner\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F8A517-A7FE-461C-8699-89640D31D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83D125-C3F9-44EA-8E04-50399F370C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7EF4DF93-470A-4418-9DBB-08AF649A7756}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EF4DF93-470A-4418-9DBB-08AF649A7756}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliverable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>Deliverable Name</t>
   </si>
@@ -288,6 +288,9 @@
   <si>
     <t>Knowledge Transfer Material
 Script Validation and Handover</t>
+  </si>
+  <si>
+    <t>N/A - OOO</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -563,7 +566,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -574,7 +576,7 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent2" xfId="5" builtinId="33"/>
@@ -899,23 +901,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96485D63-E1AC-43E1-94C4-0C8B1F518E50}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -944,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -967,7 +969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -981,22 +983,22 @@
         <v>40</v>
       </c>
       <c r="E3" s="10">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F3" s="10">
         <f>D3-E3</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G3" s="10">
         <f>F3/8</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1025,7 +1027,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1087,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1114,7 +1116,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1143,7 +1145,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
@@ -1172,7 +1174,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1193,13 +1195,13 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
     </row>
   </sheetData>
@@ -1212,19 +1214,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E826416-3F19-4B94-8D0F-13E10A4A2432}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1252,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1262,7 +1264,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="366.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="366.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1276,7 +1278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1290,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1302,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1312,7 +1314,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1324,7 +1326,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1359,18 +1361,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EF1625-45BF-412E-ABA1-B60196176E03}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>59</v>
       </c>
@@ -1381,200 +1383,202 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>45320</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>45321</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>62</v>
+      <c r="B3" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>45322</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>63</v>
+      <c r="B4" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>45323</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>65</v>
+      <c r="B5" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>45324</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>69</v>
+      <c r="B6" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>45325</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>45326</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="108" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>45327</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>45328</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>45329</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>45330</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>70</v>
+      <c r="B12" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>45331</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>73</v>
+      <c r="B13" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>45332</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>45333</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>45334</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>45335</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>45336</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>45337</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>45338</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>45339</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>45340</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
     </row>
   </sheetData>

--- a/diagrams/Long_filepath_deliverable_list.xlsx
+++ b/diagrams/Long_filepath_deliverable_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.tsang\Desktop\LongFilepathShorterner\diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\LongFilepathShorterner\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83D125-C3F9-44EA-8E04-50399F370C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B09FEA-3B10-4C09-96AF-64F253503E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7EF4DF93-470A-4418-9DBB-08AF649A7756}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7EF4DF93-470A-4418-9DBB-08AF649A7756}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliverable" sheetId="1" r:id="rId1"/>
@@ -901,23 +901,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96485D63-E1AC-43E1-94C4-0C8B1F518E50}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="103" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -969,7 +969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -998,7 +998,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1195,13 +1195,13 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
     </row>
   </sheetData>
@@ -1214,19 +1214,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E826416-3F19-4B94-8D0F-13E10A4A2432}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="366.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="366.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1365,14 +1365,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>59</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>45320</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>45321</v>
       </c>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>45322</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>45323</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>45324</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>45325</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>45326</v>
       </c>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="108" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>45327</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>45328</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>45329</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>45330</v>
       </c>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>45331</v>
       </c>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>45332</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>45333</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="29.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>45334</v>
       </c>
@@ -1520,35 +1520,35 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>45335</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>45336</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>45337</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>45338</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>45339</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>45340</v>
       </c>
@@ -1566,19 +1566,19 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
     </row>
   </sheetData>
